--- a/COW_PROJECT/Specification.xlsx
+++ b/COW_PROJECT/Specification.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\福元駿汰\Documents\Git\cow_python\COW_PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS25student\Documents\cow_python\COW_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="仕様" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>データ形式</t>
     <phoneticPr fontId="1"/>
@@ -37,19 +37,6 @@
       <t>サクセイ</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>読み込み時 (Cowshed)</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
       <t>ジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -571,6 +558,45 @@
     </rPh>
     <rPh sb="68" eb="70">
       <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込み時 (Cowshed, Cow)</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有, 無をgps_namea_data_listで管理</t>
+    <rPh sb="0" eb="1">
+      <t>アリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込みに依存</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1062,19 +1088,19 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1082,156 +1108,156 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1239,6 +1265,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1250,47 +1277,47 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9" style="8"/>
     <col min="3" max="3" width="95.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="12">
         <v>43871</v>
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="13">
         <v>43871</v>
@@ -1299,12 +1326,12 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13">
         <v>43871</v>
@@ -1313,12 +1340,12 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="8">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="13">
         <v>43871</v>
@@ -1327,12 +1354,12 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="8">
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="13">
         <v>43871</v>
@@ -1355,55 +1382,55 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="9" style="8"/>
     <col min="3" max="3" width="95.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="12">
         <v>43871</v>
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="13">
         <v>43871</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D5" s="13"/>
     </row>
   </sheetData>
